--- a/excel/工作簿3.xlsx
+++ b/excel/工作簿3.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Project\magic-tower\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="2" r:id="rId1"/>
     <sheet name="monster" sheetId="1" r:id="rId2"/>
+    <sheet name="specail" sheetId="3" r:id="rId3"/>
+    <sheet name="item" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="128">
   <si>
     <t>monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +310,234 @@
   </si>
   <si>
     <t>100,101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem-blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem-red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potion-red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potion-blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻碍移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door-yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door-blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door-red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door-specail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-yellow,key-blue,key-red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stairs-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少道具后自毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stairs-down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREVIOUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dec_item_to_destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defeat_monster_to_destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheild-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheild-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheild-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheild-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheild-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,10 +592,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -692,18 +935,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -711,7 +954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -719,7 +962,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -742,24 +985,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="A1:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -770,7 +1013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -781,11 +1024,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,7 +1039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,7 +1050,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,7 +1061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,7 +1072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,7 +1083,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -851,7 +1094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -862,7 +1105,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -873,7 +1116,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -884,7 +1127,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -895,7 +1138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -906,7 +1149,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -917,7 +1160,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -928,7 +1171,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -939,7 +1182,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -950,7 +1193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -961,7 +1204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -972,7 +1215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -983,7 +1226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -994,7 +1237,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1005,7 +1248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1016,7 +1259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1027,7 +1270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1038,7 +1281,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1049,7 +1292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1060,7 +1303,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1071,7 +1314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1082,7 +1325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1093,7 +1336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1113,4 +1356,511 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="31.875" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="1">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="1">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="1">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="1">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="1">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="1">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="1">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="1">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="1">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="1">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="1">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="1">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel/工作簿3.xlsx
+++ b/excel/工作簿3.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="2" r:id="rId1"/>
     <sheet name="monster" sheetId="1" r:id="rId2"/>
-    <sheet name="specail" sheetId="3" r:id="rId3"/>
-    <sheet name="item" sheetId="4" r:id="rId4"/>
+    <sheet name="npc" sheetId="5" r:id="rId3"/>
+    <sheet name="specail" sheetId="3" r:id="rId4"/>
+    <sheet name="item" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="145">
   <si>
     <t>monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,6 +539,74 @@
   </si>
   <si>
     <t>sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158,159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busineesman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160,161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162,163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -983,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="A1:C33"/>
+      <selection sqref="A1:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -994,15 +1063,17 @@
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="1"/>
+    <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1012,8 +1083,17 @@
       <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1023,12 +1103,21 @@
       <c r="C3" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1038,8 +1127,17 @@
       <c r="C5" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1049,8 +1147,9 @@
       <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1060,8 +1159,9 @@
       <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,8 +1171,9 @@
       <c r="C8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1082,8 +1183,9 @@
       <c r="C9" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1195,9 @@
       <c r="C10" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1207,9 @@
       <c r="C11" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1115,8 +1219,9 @@
       <c r="C12" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1126,8 +1231,9 @@
       <c r="C13" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1137,8 +1243,9 @@
       <c r="C14" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1148,8 +1255,9 @@
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1159,8 +1267,9 @@
       <c r="C16" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1170,8 +1279,9 @@
       <c r="C17" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1181,8 +1291,9 @@
       <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1192,8 +1303,9 @@
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,8 +1315,9 @@
       <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1214,8 +1327,9 @@
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1225,8 +1339,9 @@
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1236,8 +1351,9 @@
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1247,8 +1363,9 @@
       <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1258,8 +1375,9 @@
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1269,8 +1387,9 @@
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,8 +1399,9 @@
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1291,8 +1411,9 @@
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1302,8 +1423,9 @@
       <c r="C29" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1313,8 +1435,9 @@
       <c r="C30" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1324,8 +1447,9 @@
       <c r="C31" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1335,8 +1459,9 @@
       <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1346,10 +1471,12 @@
       <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="D33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1360,9 +1487,239 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="1">
+        <v>158</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="1">
+        <v>160</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="1">
+        <v>162</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="1">
+        <v>164</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="1">
+        <v>166</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -1607,7 +1964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>

--- a/excel/工作簿3.xlsx
+++ b/excel/工作簿3.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Project\magic-tower\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="2" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="145">
   <si>
     <t>monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,11 +349,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>specail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>specail</t>
+    <t>sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door-yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door-blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door-red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door-specail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-yellow,key-blue,key-red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stairs-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少道具后自毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stairs-down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREVIOUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -366,75 +425,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>change_map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defeat_monster_to_destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheild-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheild-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheild-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheild-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheild-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sprite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻碍移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>door-yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>door-blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>door-red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>door-specail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key-yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key-blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key-red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key-yellow,key-blue,key-red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stairs-up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少道具后自毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stairs-down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREVIOUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fence</t>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158,159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busineesman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160,161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162,163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -442,171 +565,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change_map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defeat_monster_to_destroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>block</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>add_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>add_yellow_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_blue_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sword-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sword-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sword-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sword-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sword-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheild-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheild-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheild-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheild-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheild-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sprite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>robot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>158,159</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>busineesman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160,161</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>162,163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>princess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167</t>
+    <t>add_red_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -659,9 +654,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1004,18 +1002,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1023,7 +1021,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1031,7 +1029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1058,22 +1056,22 @@
       <selection sqref="A1:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1"/>
-    <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1"/>
+    <col min="4" max="4" width="9.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1084,16 +1082,16 @@
         <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1104,20 +1102,20 @@
         <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1126,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -1137,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1147,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1159,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1173,7 +1171,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1185,7 +1183,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1195,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1209,7 +1207,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1221,7 +1219,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,7 +1231,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1245,7 +1243,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1257,7 +1255,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1269,7 +1267,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1279,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1293,7 +1291,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1305,7 +1303,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1317,7 +1315,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1329,7 +1327,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,7 +1339,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1353,7 +1351,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1365,7 +1363,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1377,7 +1375,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1389,7 +1387,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1401,7 +1399,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,7 +1411,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1425,7 +1423,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1437,7 +1435,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1449,7 +1447,7 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1461,7 +1459,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1476,7 +1474,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1489,24 +1487,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1517,7 +1515,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1528,182 +1526,182 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1">
         <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1">
         <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B7" s="1">
         <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1">
         <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B9" s="1">
         <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -1711,35 +1709,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="31.875" customWidth="1"/>
-    <col min="7" max="7" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1747,22 +1749,19 @@
         <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1770,33 +1769,27 @@
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D4" s="1" t="s">
-        <v>86</v>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="D4" t="s">
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1806,13 +1799,10 @@
       <c r="C5" s="1">
         <v>68</v>
       </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1">
         <v>67</v>
@@ -1820,16 +1810,13 @@
       <c r="C6" s="1">
         <v>67</v>
       </c>
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1">
         <v>66</v>
@@ -1837,16 +1824,13 @@
       <c r="C7" s="1">
         <v>66</v>
       </c>
-      <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1">
         <v>65</v>
@@ -1854,16 +1838,13 @@
       <c r="C8" s="1">
         <v>65</v>
       </c>
-      <c r="D8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1">
         <v>64</v>
@@ -1871,16 +1852,13 @@
       <c r="C9" s="1">
         <v>64</v>
       </c>
-      <c r="D9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1">
         <v>56</v>
@@ -1888,16 +1866,13 @@
       <c r="C10" s="1">
         <v>56</v>
       </c>
-      <c r="D10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1">
         <v>55</v>
@@ -1905,16 +1880,13 @@
       <c r="C11" s="1">
         <v>55</v>
       </c>
-      <c r="D11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1">
         <v>54</v>
@@ -1922,16 +1894,13 @@
       <c r="C12" s="1">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="b">
+      <c r="F12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1">
         <v>50</v>
@@ -1939,52 +1908,54 @@
       <c r="C13" s="1">
         <v>50</v>
       </c>
-      <c r="D13" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1">
         <v>49</v>
       </c>
       <c r="C14" s="1">
         <v>49</v>
-      </c>
-      <c r="D14" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1995,16 +1966,25 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2012,23 +1992,32 @@
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -2038,8 +2027,11 @@
       <c r="C5" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -2049,8 +2041,11 @@
       <c r="C6" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -2060,8 +2055,11 @@
       <c r="C7" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -2071,8 +2069,11 @@
       <c r="C8" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
@@ -2082,8 +2083,11 @@
       <c r="C9" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
@@ -2093,8 +2097,11 @@
       <c r="C10" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
@@ -2104,10 +2111,13 @@
       <c r="C11" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1">
         <v>46</v>
@@ -2116,9 +2126,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B13" s="1">
         <v>45</v>
@@ -2127,9 +2137,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1">
         <v>44</v>
@@ -2138,9 +2148,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1">
         <v>43</v>
@@ -2149,9 +2159,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1">
         <v>42</v>
@@ -2160,9 +2170,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B17" s="1">
         <v>41</v>
@@ -2171,9 +2181,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B18" s="1">
         <v>40</v>
@@ -2182,9 +2192,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B19" s="1">
         <v>39</v>
@@ -2193,9 +2203,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B20" s="1">
         <v>38</v>
@@ -2204,9 +2214,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B21" s="1">
         <v>37</v>
@@ -2218,6 +2228,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excel/工作簿3.xlsx
+++ b/excel/工作簿3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Project\magic-tower\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="140" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1125" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="2" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="166">
   <si>
     <t>monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,6 +679,18 @@
   </si>
   <si>
     <t>3 atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gray-wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,13 +772,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1104,18 +1121,18 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1123,7 +1140,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1131,7 +1148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1139,7 +1156,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
@@ -1147,7 +1164,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>150</v>
       </c>
@@ -1155,7 +1172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>149</v>
       </c>
@@ -1163,7 +1180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
@@ -1171,7 +1188,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>154</v>
       </c>
@@ -1179,7 +1196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>155</v>
       </c>
@@ -1187,7 +1204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
@@ -1210,26 +1227,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="11" style="1"/>
-    <col min="4" max="4" width="9.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1251,8 +1269,11 @@
       <c r="G2" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1274,12 +1295,15 @@
       <c r="G3" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1301,11 +1325,14 @@
       <c r="G5">
         <v>5</v>
       </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
       <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1327,11 +1354,14 @@
       <c r="G6">
         <v>15</v>
       </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1353,17 +1383,23 @@
       <c r="G7">
         <v>10</v>
       </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
       <c r="I7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1385,11 +1421,14 @@
       <c r="G9">
         <v>30</v>
       </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1411,17 +1450,23 @@
       <c r="G10">
         <v>30</v>
       </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1443,11 +1488,14 @@
       <c r="G12">
         <v>60</v>
       </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1469,17 +1517,23 @@
       <c r="G13">
         <v>50</v>
       </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1490,8 +1544,11 @@
         <v>63</v>
       </c>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1502,8 +1559,11 @@
         <v>64</v>
       </c>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1514,8 +1574,11 @@
         <v>65</v>
       </c>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1526,8 +1589,11 @@
         <v>66</v>
       </c>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1538,8 +1604,11 @@
         <v>67</v>
       </c>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,8 +1619,11 @@
         <v>68</v>
       </c>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1562,8 +1634,11 @@
         <v>69</v>
       </c>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1574,8 +1649,11 @@
         <v>70</v>
       </c>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1586,8 +1664,11 @@
         <v>34</v>
       </c>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1609,8 +1690,11 @@
       <c r="G24">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1621,8 +1705,11 @@
         <v>36</v>
       </c>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1633,8 +1720,11 @@
         <v>37</v>
       </c>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1645,8 +1735,11 @@
         <v>38</v>
       </c>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1657,8 +1750,11 @@
         <v>39</v>
       </c>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1669,8 +1765,11 @@
         <v>40</v>
       </c>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1780,11 @@
         <v>41</v>
       </c>
       <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1">
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1693,8 +1795,11 @@
         <v>42</v>
       </c>
       <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1705,8 +1810,11 @@
         <v>44</v>
       </c>
       <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1717,8 +1825,11 @@
         <v>45</v>
       </c>
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1729,8 +1840,11 @@
         <v>46</v>
       </c>
       <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1741,8 +1855,11 @@
         <v>47</v>
       </c>
       <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -1753,6 +1870,9 @@
         <v>48</v>
       </c>
       <c r="D36" s="2"/>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1774,20 +1894,20 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1798,7 +1918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1809,12 +1929,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>124</v>
       </c>
@@ -1825,7 +1945,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>126</v>
       </c>
@@ -1836,7 +1956,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
@@ -1847,7 +1967,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -1858,7 +1978,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>132</v>
       </c>
@@ -1869,122 +1989,122 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -2003,28 +2123,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
+    <col min="6" max="6" width="28.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2044,7 +2164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2064,7 +2184,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
         <v>93</v>
       </c>
@@ -2072,7 +2192,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -2083,7 +2203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -2097,7 +2217,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -2111,7 +2231,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -2125,7 +2245,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -2139,7 +2259,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -2153,7 +2273,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -2167,7 +2287,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -2181,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -2192,7 +2312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -2201,6 +2321,17 @@
       </c>
       <c r="C14" s="1">
         <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="1">
+        <v>157</v>
+      </c>
+      <c r="C15" s="1">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2223,22 +2354,22 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2267,7 +2398,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2296,11 +2427,11 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -2314,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -2328,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -2342,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -2356,7 +2487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
@@ -2370,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
@@ -2384,7 +2515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
@@ -2398,7 +2529,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -2412,7 +2543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -2423,7 +2554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>108</v>
       </c>
@@ -2434,7 +2565,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
@@ -2445,7 +2576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>110</v>
       </c>
@@ -2456,7 +2587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>111</v>
       </c>
@@ -2467,7 +2598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>112</v>
       </c>
@@ -2478,7 +2609,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>113</v>
       </c>
@@ -2489,7 +2620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>114</v>
       </c>
@@ -2500,7 +2631,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>115</v>
       </c>

--- a/excel/工作簿3.xlsx
+++ b/excel/工作簿3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1125" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="234">
   <si>
     <t>monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -931,6 +931,38 @@
   </si>
   <si>
     <t>106,107</t>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1-1,c1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2-1,c2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3-1,c3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4-1,c4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1466,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2705,13 +2737,14 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -2804,24 +2837,48 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="1">
+        <v>141</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="1">
+        <v>142</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="1">
+        <v>143</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="1">
+        <v>144</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -2939,7 +2996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/excel/工作簿3.xlsx
+++ b/excel/工作簿3.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Project\magic-tower\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1120" yWindow="140" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="2" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="236">
   <si>
     <t>monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -962,6 +957,14 @@
   </si>
   <si>
     <t>c4-1,c4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>air-wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,13 +1046,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1392,18 +1395,18 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>112</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>116</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>117</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
@@ -1502,24 +1505,24 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="1" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="11" style="1"/>
-    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
     <col min="7" max="9" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1573,12 +1576,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -1636,7 +1639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>127</v>
       </c>
@@ -1694,14 +1697,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>143</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>146</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>149</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>152</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>155</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>158</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>161</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>164</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>167</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>170</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>173</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>176</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>179</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>182</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>185</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>187</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>190</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>193</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>196</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>199</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>202</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>205</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>207</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>211</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>213</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>216</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>219</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>222</v>
       </c>
@@ -2559,161 +2562,161 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="18" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2723,7 +2726,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2740,21 +2743,21 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2776,12 +2779,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>226</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>227</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>228</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>229</v>
       </c>
@@ -2880,102 +2883,102 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -2983,7 +2986,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2994,28 +2997,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="31.875" customWidth="1"/>
-    <col min="6" max="6" width="28.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="D4" t="s">
         <v>60</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -3203,6 +3206,17 @@
       </c>
       <c r="C15" s="1">
         <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="1">
+        <v>167</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3225,22 +3239,22 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3269,7 +3283,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3298,11 +3312,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -3316,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -3330,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -3344,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -3358,7 +3372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -3372,7 +3386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -3386,7 +3400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -3400,7 +3414,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -3414,7 +3428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -3425,7 +3439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
@@ -3436,7 +3450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
@@ -3447,7 +3461,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,7 +3472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
@@ -3469,7 +3483,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -3480,7 +3494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -3491,7 +3505,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -3502,7 +3516,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
